--- a/data/trans_camb/P5_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 6,84</t>
+          <t>-10,18; 6,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 3,86</t>
+          <t>-11,99; 7,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,13</t>
+          <t>-7,91; 5,41</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-1,36%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 7,39</t>
+          <t>-10,36; 7,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,07</t>
+          <t>-12,3; 8,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,28</t>
+          <t>-8,15; 5,77</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,83</t>
+          <t>-16,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-8,26</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,68; -0,16</t>
+          <t>-53,98; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 7,36</t>
+          <t>-8,84; 8,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 0,29</t>
+          <t>-29,02; 0,95</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-8,48%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,57; -0,21</t>
+          <t>-53,98; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 8,3</t>
+          <t>-8,97; 9,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 0,28</t>
+          <t>-29,78; 0,98</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,17</t>
+          <t>-8,76; 8,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,38</t>
+          <t>-6,17; 7,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,0</t>
+          <t>-4,85; 5,93</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,89</t>
+          <t>-8,97; 9,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,1</t>
+          <t>-6,37; 7,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,43</t>
+          <t>-5,08; 6,54</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,34</t>
+          <t>-6,15; 6,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,91</t>
+          <t>-3,36; 3,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-0,04%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 4,72</t>
+          <t>-6,29; 6,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,07</t>
+          <t>-3,41; 3,31</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 6,95</t>
+          <t>-5,26; 6,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,37</t>
+          <t>-3,36; 3,43</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 7,73</t>
+          <t>-5,39; 6,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,73</t>
+          <t>-3,37; 3,6</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,05</t>
+          <t>-8,11; 8,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,21</t>
+          <t>-11,04; 10,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,68</t>
+          <t>-6,79; 6,1</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,02%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,49</t>
+          <t>-8,19; 9,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,66</t>
+          <t>-11,22; 11,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,89</t>
+          <t>-6,94; 6,71</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,55</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,26</t>
+          <t>-13,76; 0,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,01</t>
+          <t>-3,35; 3,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,9</t>
+          <t>-6,55; 0,63</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,34</t>
+          <t>-14,07; 0,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,14</t>
+          <t>-3,49; 3,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,95</t>
+          <t>-6,76; 0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.6984566106239987</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.273590272443505</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.179456179249484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 6,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; 7,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 5,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.26274139719187</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.54025581698414</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.925786949214057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,14%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,36%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.455605322557403</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.133176272094696</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.463491501449838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 7,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 8,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 5,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.00721310650860008</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.03437444850587012</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02272420595244484</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-16,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1280247642001306</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1532392130773309</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1029594820968196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-53,98; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 8,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-29,02; 0,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.06892121235457274</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.07798741119275139</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04684553887927165</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-16,11%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-12.0128531778212</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4407769096071101</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.025594917406374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-53,98; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 9,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-29,78; 0,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-45.13358776115948</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.563898557484453</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.21099139274422</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.868282512278299</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.686487871540469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 8,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 7,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 5,93</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.120128531778212</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.00464219609964688</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.06179592780101902</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4513358776115948</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.06787702888761186</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2348178438558426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 9,62</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 7,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 6,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.09923396041700833</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01600044617138556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.2379520986143135</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.07570053629298856</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1332874098709413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; 6,04</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.529639372505834</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.446211976177127</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.159958781449153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.79257478626517</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.615242287817813</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.619523454536785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 6,59</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 3,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.002515960670341245</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.0008098279248971738</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.001419310039568289</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.07742634009009203</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.07820964540193052</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.05375356188991322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,26; 6,13</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.09846087545883005</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.0730777958981368</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.06233031232501077</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.006436006072463307</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.01810932417014577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 6,56</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 3,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="n">
+        <v>-6.217017958454754</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.432939678522426</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="n">
+        <v>6.072004047669793</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.169183290306856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,11; 8,44</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 10,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 6,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>6.774047365192699e-05</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0001861005655817779</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-0.06341784869560367</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.03508044796221063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 9,28</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 11,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 6,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>0.06689725006665467</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03293946427401667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +979,307 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.1571134560453435</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.08177771855121252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 0,69</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 3,02</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 0,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-4.577962645062705</v>
+      </c>
+      <c r="D29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="n">
+        <v>-3.096667601702012</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>6.224621101366345</v>
+      </c>
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="n">
+        <v>3.508247692162009</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; 0,68</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 3,23</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.001618951221798083</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.0008318566545239518</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.04674236517358576</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="n">
+        <v>-0.03136722167983721</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.06657956190796054</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="n">
+        <v>0.03667799796740507</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.4616634391716223</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.2396718296065581</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.1157995370571929</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-6.009664313821875</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-12.45852049151193</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-6.496726109438589</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>8.544033815617698</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>9.353170467756314</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>6.328222049723198</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.004751282513802085</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.002536811394807627</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.001209932320780114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.06352056201678137</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.1280337919603378</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.06593191420709738</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.09381702688021697</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.1057157421775128</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.06927647973101705</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-2.305316895320708</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.4442754959527284</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-1.308548172279189</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-10.9575694374396</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.632872002284179</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.411857610853484</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.8571176114626847</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.928841359427671</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.7431560777452029</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.02358289398509344</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.004667745996064507</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.01357733173448126</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.111174800553718</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.03752100573063549</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.05577323671944161</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.008781933953970865</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.03094707683794894</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.007863347549437585</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1287,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
